--- a/MillenniumHistory/Win32/EngineStaticReleaseWindows/Resource/AncientBooks/Book.xlsx
+++ b/MillenniumHistory/Win32/EngineStaticReleaseWindows/Resource/AncientBooks/Book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9444"/>
+    <workbookView windowWidth="22188" windowHeight="9204"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4099" uniqueCount="3844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4098" uniqueCount="3843">
   <si>
     <t>@default</t>
   </si>
@@ -94,13 +94,13 @@
     <t>author</t>
   </si>
   <si>
-    <t>authorDescribe</t>
+    <t>authorNotes</t>
   </si>
   <si>
     <t>annotator</t>
   </si>
   <si>
-    <t>annotateDescribe</t>
+    <t>annotateNotes</t>
   </si>
   <si>
     <t>country</t>
@@ -304,7 +304,7 @@
     <t>晉書</t>
   </si>
   <si>
-    <t>1200180005&amp;1200180006</t>
+    <t>1200180005&amp;1200110002</t>
   </si>
   <si>
     <t>官修&amp;御撰</t>
@@ -10829,9 +10829,6 @@
   </si>
   <si>
     <t>三台通書正宗</t>
-  </si>
-  <si>
-    <t>通書&amp;曆法&amp;類編</t>
   </si>
   <si>
     <t>天文書</t>
@@ -11551,7 +11548,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -11579,34 +11576,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -11620,14 +11589,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11667,6 +11628,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11717,7 +11693,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11732,55 +11729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11798,31 +11753,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11846,6 +11789,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -11858,7 +11813,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11882,7 +11861,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11906,6 +11897,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -11923,21 +11920,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -11970,6 +11952,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12028,148 +12025,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12189,52 +12186,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -12508,7 +12505,7 @@
   <dimension ref="A1:L4016"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -12519,9 +12516,10 @@
     <col min="4" max="4" width="9.65740740740741" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.6666666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5925925925926" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.0185185185185" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6296296296296" style="1" customWidth="1"/>
-    <col min="9" max="11" width="14.4351851851852" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7777777777778" style="1" customWidth="1"/>
+    <col min="10" max="11" width="14.4351851851852" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.3796296296296" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.77777777777778" style="1"/>
   </cols>
@@ -12675,7 +12673,7 @@
         <v>130</v>
       </c>
       <c r="F5" s="1">
-        <v>600180001</v>
+        <v>600130057</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>33</v>
@@ -14699,6 +14697,9 @@
       <c r="E120" s="1">
         <v>1</v>
       </c>
+      <c r="F120" s="1">
+        <v>80000</v>
+      </c>
       <c r="H120" s="1">
         <v>1000380001</v>
       </c>
@@ -15522,7 +15523,7 @@
         <v>520</v>
       </c>
       <c r="F171" s="1">
-        <v>1400650001</v>
+        <v>1400280010</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -15770,6 +15771,9 @@
       <c r="E186" s="1">
         <v>3058</v>
       </c>
+      <c r="F186" s="1">
+        <v>80000</v>
+      </c>
       <c r="G186" s="1" t="s">
         <v>108</v>
       </c>
@@ -16103,6 +16107,9 @@
       <c r="E204" s="1">
         <v>4</v>
       </c>
+      <c r="F204" s="1">
+        <v>80000</v>
+      </c>
       <c r="G204" s="1" t="s">
         <v>108</v>
       </c>
@@ -19085,6 +19092,9 @@
       <c r="E388" s="1">
         <v>33</v>
       </c>
+      <c r="F388" s="1">
+        <v>80000</v>
+      </c>
       <c r="H388" s="1" t="s">
         <v>409</v>
       </c>
@@ -28990,7 +29000,7 @@
         <v>10</v>
       </c>
       <c r="F970" s="1">
-        <v>1400650001</v>
+        <v>1400280010</v>
       </c>
     </row>
     <row r="971" spans="1:6">
@@ -76184,9 +76194,6 @@
       <c r="F3737" s="1">
         <v>1600180541</v>
       </c>
-      <c r="G3737" s="1" t="s">
-        <v>3605</v>
-      </c>
       <c r="H3737" s="1">
         <v>1600180542</v>
       </c>
@@ -76200,7 +76207,7 @@
         <v>112040</v>
       </c>
       <c r="C3738" s="1" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="E3738" s="1">
         <v>4</v>
@@ -76209,10 +76216,10 @@
         <v>1600180546</v>
       </c>
       <c r="G3738" s="1" t="s">
+        <v>3606</v>
+      </c>
+      <c r="H3738" s="1" t="s">
         <v>3607</v>
-      </c>
-      <c r="H3738" s="1" t="s">
-        <v>3608</v>
       </c>
       <c r="I3738" s="1" t="s">
         <v>1868</v>
@@ -76233,7 +76240,7 @@
         <v>112050</v>
       </c>
       <c r="C3740" s="1" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="E3740" s="1">
         <v>6</v>
@@ -76251,13 +76258,13 @@
         <v>112050</v>
       </c>
       <c r="C3741" s="1" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="E3741" s="1">
         <v>36</v>
       </c>
       <c r="F3741" s="1" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="3742" spans="2:2">
@@ -76275,7 +76282,7 @@
         <v>112060</v>
       </c>
       <c r="C3743" s="1" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="E3743" s="1">
         <v>5</v>
@@ -76299,7 +76306,7 @@
         <v>112070</v>
       </c>
       <c r="C3745" s="1" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="E3745" s="1">
         <v>34</v>
@@ -76311,10 +76318,10 @@
         <v>358</v>
       </c>
       <c r="H3745" s="1" t="s">
+        <v>3613</v>
+      </c>
+      <c r="I3745" s="1" t="s">
         <v>3614</v>
-      </c>
-      <c r="I3745" s="1" t="s">
-        <v>3615</v>
       </c>
     </row>
     <row r="3746" spans="1:6">
@@ -76326,7 +76333,7 @@
         <v>112070</v>
       </c>
       <c r="C3746" s="1" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="E3746" s="1">
         <v>8</v>
@@ -76344,7 +76351,7 @@
         <v>112070</v>
       </c>
       <c r="C3747" s="1" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="E3747" s="1">
         <v>12</v>
@@ -76362,7 +76369,7 @@
         <v>112070</v>
       </c>
       <c r="C3748" s="1" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="E3748" s="1">
         <v>3</v>
@@ -76386,7 +76393,7 @@
         <v>113010</v>
       </c>
       <c r="C3750" s="2" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="D3750" s="2"/>
       <c r="E3750" s="1">
@@ -76411,7 +76418,7 @@
         <v>113010</v>
       </c>
       <c r="C3751" s="1" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="E3751" s="1">
         <v>1</v>
@@ -76429,7 +76436,7 @@
         <v>113010</v>
       </c>
       <c r="C3752" s="1" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="E3752" s="1">
         <v>4</v>
@@ -76447,7 +76454,7 @@
         <v>113010</v>
       </c>
       <c r="C3753" s="1" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="E3753" s="1">
         <v>1</v>
@@ -76471,7 +76478,7 @@
         <v>113020</v>
       </c>
       <c r="C3755" s="1" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="E3755" s="1">
         <v>2</v>
@@ -76489,7 +76496,7 @@
         <v>113020</v>
       </c>
       <c r="C3756" s="1" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="E3756" s="1">
         <v>6</v>
@@ -76507,7 +76514,7 @@
         <v>113020</v>
       </c>
       <c r="C3757" s="1" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="E3757" s="1">
         <v>2</v>
@@ -76525,7 +76532,7 @@
         <v>113020</v>
       </c>
       <c r="C3758" s="1" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="E3758" s="1">
         <v>2</v>
@@ -76543,7 +76550,7 @@
         <v>113020</v>
       </c>
       <c r="C3759" s="1" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="E3759" s="1">
         <v>1</v>
@@ -76561,7 +76568,7 @@
         <v>113020</v>
       </c>
       <c r="C3760" s="1" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="E3760" s="1">
         <v>4</v>
@@ -76579,7 +76586,7 @@
         <v>113020</v>
       </c>
       <c r="C3761" s="1" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="E3761" s="1">
         <v>3</v>
@@ -76597,13 +76604,13 @@
         <v>113020</v>
       </c>
       <c r="C3762" s="1" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="E3762" s="1">
         <v>2</v>
       </c>
       <c r="F3762" s="1" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="3763" spans="1:6">
@@ -76615,7 +76622,7 @@
         <v>113020</v>
       </c>
       <c r="C3763" s="1" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="E3763" s="1">
         <v>2</v>
@@ -76633,7 +76640,7 @@
         <v>113020</v>
       </c>
       <c r="C3764" s="1" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="E3764" s="1">
         <v>2</v>
@@ -76651,7 +76658,7 @@
         <v>113020</v>
       </c>
       <c r="C3765" s="1" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="E3765" s="1">
         <v>-1</v>
@@ -76669,7 +76676,7 @@
         <v>113020</v>
       </c>
       <c r="C3766" s="1" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="E3766" s="1">
         <v>13</v>
@@ -76687,7 +76694,7 @@
         <v>113020</v>
       </c>
       <c r="C3767" s="1" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="E3767" s="1">
         <v>4</v>
@@ -76705,7 +76712,7 @@
         <v>113020</v>
       </c>
       <c r="C3768" s="1" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="E3768" s="1">
         <v>4</v>
@@ -76723,7 +76730,7 @@
         <v>113020</v>
       </c>
       <c r="C3769" s="1" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="E3769" s="1">
         <v>12</v>
@@ -76741,7 +76748,7 @@
         <v>113020</v>
       </c>
       <c r="C3770" s="1" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="E3770" s="1">
         <v>2</v>
@@ -76759,7 +76766,7 @@
         <v>113020</v>
       </c>
       <c r="C3771" s="1" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="E3771" s="1">
         <v>2</v>
@@ -76777,7 +76784,7 @@
         <v>113020</v>
       </c>
       <c r="C3772" s="1" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="E3772" s="1">
         <v>4</v>
@@ -76795,7 +76802,7 @@
         <v>113020</v>
       </c>
       <c r="C3773" s="1" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="E3773" s="1">
         <v>2</v>
@@ -76813,7 +76820,7 @@
         <v>113020</v>
       </c>
       <c r="C3774" s="1" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="E3774" s="1">
         <v>2</v>
@@ -76831,7 +76838,7 @@
         <v>113020</v>
       </c>
       <c r="C3775" s="1" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="E3775" s="1">
         <v>2</v>
@@ -76855,7 +76862,7 @@
         <v>113030</v>
       </c>
       <c r="C3777" s="1" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="E3777" s="1">
         <v>1</v>
@@ -76873,7 +76880,7 @@
         <v>113030</v>
       </c>
       <c r="C3778" s="1" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="E3778" s="1">
         <v>3</v>
@@ -76897,7 +76904,7 @@
         <v>113040</v>
       </c>
       <c r="C3780" s="1" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="E3780" s="1">
         <v>8</v>
@@ -76906,10 +76913,10 @@
         <v>401750001</v>
       </c>
       <c r="H3780" s="1" t="s">
+        <v>3647</v>
+      </c>
+      <c r="I3780" s="1" t="s">
         <v>3648</v>
-      </c>
-      <c r="I3780" s="1" t="s">
-        <v>3649</v>
       </c>
     </row>
     <row r="3781" spans="1:6">
@@ -76921,7 +76928,7 @@
         <v>113040</v>
       </c>
       <c r="C3781" s="1" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="E3781" s="1">
         <v>8</v>
@@ -76939,7 +76946,7 @@
         <v>113040</v>
       </c>
       <c r="C3782" s="1" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="E3782" s="1">
         <v>8</v>
@@ -76960,7 +76967,7 @@
         <v>113040</v>
       </c>
       <c r="C3783" s="1" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="E3783" s="1">
         <v>20</v>
@@ -76978,7 +76985,7 @@
         <v>113040</v>
       </c>
       <c r="C3784" s="1" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="E3784" s="1">
         <v>2</v>
@@ -77002,7 +77009,7 @@
         <v>113050</v>
       </c>
       <c r="C3786" s="1" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="E3786" s="1">
         <v>10</v>
@@ -77023,7 +77030,7 @@
         <v>113050</v>
       </c>
       <c r="C3787" s="1" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="E3787" s="1">
         <v>20</v>
@@ -77041,7 +77048,7 @@
         <v>113050</v>
       </c>
       <c r="C3788" s="1" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="E3788" s="1">
         <v>10</v>
@@ -77059,7 +77066,7 @@
         <v>113050</v>
       </c>
       <c r="C3789" s="1" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="E3789" s="1">
         <v>106</v>
@@ -77077,7 +77084,7 @@
         <v>113050</v>
       </c>
       <c r="C3790" s="1" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="E3790" s="1">
         <v>8</v>
@@ -77095,7 +77102,7 @@
         <v>113050</v>
       </c>
       <c r="C3791" s="1" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E3791" s="1">
         <v>35</v>
@@ -77122,7 +77129,7 @@
         <v>113050</v>
       </c>
       <c r="C3792" s="1" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="E3792" s="1">
         <v>8</v>
@@ -77140,7 +77147,7 @@
         <v>113050</v>
       </c>
       <c r="C3793" s="1" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="E3793" s="1">
         <v>30</v>
@@ -77158,7 +77165,7 @@
         <v>113050</v>
       </c>
       <c r="C3794" s="1" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="E3794" s="1">
         <v>10</v>
@@ -77176,7 +77183,7 @@
         <v>113050</v>
       </c>
       <c r="C3795" s="1" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="E3795" s="1">
         <v>5</v>
@@ -77194,7 +77201,7 @@
         <v>113050</v>
       </c>
       <c r="C3796" s="1" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="E3796" s="1">
         <v>8</v>
@@ -77212,7 +77219,7 @@
         <v>113050</v>
       </c>
       <c r="C3797" s="1" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="E3797" s="1">
         <v>9</v>
@@ -77230,7 +77237,7 @@
         <v>113050</v>
       </c>
       <c r="C3798" s="1" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="E3798" s="1">
         <v>33</v>
@@ -77248,7 +77255,7 @@
         <v>113050</v>
       </c>
       <c r="C3799" s="1" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="E3799" s="1">
         <v>10</v>
@@ -77266,7 +77273,7 @@
         <v>113050</v>
       </c>
       <c r="C3800" s="1" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="E3800" s="1">
         <v>8</v>
@@ -77290,7 +77297,7 @@
         <v>113060</v>
       </c>
       <c r="C3802" s="1" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="E3802" s="1">
         <v>12</v>
@@ -77308,7 +77315,7 @@
         <v>113060</v>
       </c>
       <c r="C3803" s="1" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="E3803" s="1">
         <v>12</v>
@@ -77326,19 +77333,19 @@
         <v>113060</v>
       </c>
       <c r="C3804" s="1" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="E3804" s="1">
         <v>12</v>
       </c>
       <c r="F3804" s="1" t="s">
+        <v>3669</v>
+      </c>
+      <c r="H3804" s="1" t="s">
         <v>3670</v>
       </c>
-      <c r="H3804" s="1" t="s">
+      <c r="I3804" s="1" t="s">
         <v>3671</v>
-      </c>
-      <c r="I3804" s="1" t="s">
-        <v>3672</v>
       </c>
     </row>
     <row r="3805" spans="2:2">
@@ -77356,7 +77363,7 @@
         <v>113070</v>
       </c>
       <c r="C3806" s="2" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="D3806" s="2"/>
       <c r="E3806" s="1">
@@ -77375,7 +77382,7 @@
         <v>113070</v>
       </c>
       <c r="C3807" s="1" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="E3807" s="1">
         <v>1</v>
@@ -77393,7 +77400,7 @@
         <v>113070</v>
       </c>
       <c r="C3808" s="1" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="E3808" s="1">
         <v>3</v>
@@ -77411,7 +77418,7 @@
         <v>113070</v>
       </c>
       <c r="C3809" s="1" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="E3809" s="1">
         <v>3</v>
@@ -77429,7 +77436,7 @@
         <v>113070</v>
       </c>
       <c r="C3810" s="1" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="E3810" s="1">
         <v>3</v>
@@ -77447,7 +77454,7 @@
         <v>113070</v>
       </c>
       <c r="C3811" s="1" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="E3811" s="1">
         <v>3</v>
@@ -77471,7 +77478,7 @@
         <v>113080</v>
       </c>
       <c r="C3813" s="2" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="D3813" s="2"/>
       <c r="E3813" s="1">
@@ -77496,7 +77503,7 @@
         <v>113090</v>
       </c>
       <c r="C3815" s="1" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="E3815" s="1">
         <v>8</v>
@@ -77514,7 +77521,7 @@
         <v>113090</v>
       </c>
       <c r="C3816" s="1" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="E3816" s="1">
         <v>10</v>
@@ -77532,7 +77539,7 @@
         <v>113090</v>
       </c>
       <c r="C3817" s="1" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="E3817" s="1">
         <v>20</v>
@@ -77556,7 +77563,7 @@
         <v>113100</v>
       </c>
       <c r="C3819" s="1" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="E3819" s="1">
         <v>1</v>
@@ -77574,7 +77581,7 @@
         <v>113100</v>
       </c>
       <c r="C3820" s="1" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="E3820" s="1">
         <v>9</v>
@@ -77586,7 +77593,7 @@
         <v>1600180558</v>
       </c>
       <c r="I3820" s="1" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="3821" spans="1:6">
@@ -77598,7 +77605,7 @@
         <v>113100</v>
       </c>
       <c r="C3821" s="1" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="E3821" s="1">
         <v>1</v>
@@ -77616,7 +77623,7 @@
         <v>113100</v>
       </c>
       <c r="C3822" s="1" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="E3822" s="1">
         <v>1</v>
@@ -77634,7 +77641,7 @@
         <v>113100</v>
       </c>
       <c r="C3823" s="1" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="E3823" s="1">
         <v>3</v>
@@ -77658,7 +77665,7 @@
         <v>113110</v>
       </c>
       <c r="C3825" s="1" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="E3825" s="1">
         <v>3</v>
@@ -77682,7 +77689,7 @@
         <v>113120</v>
       </c>
       <c r="C3827" s="1" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="E3827" s="1">
         <v>122</v>
@@ -77700,7 +77707,7 @@
         <v>113120</v>
       </c>
       <c r="C3828" s="1" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="E3828" s="1">
         <v>4</v>
@@ -77709,10 +77716,10 @@
         <v>1400180178</v>
       </c>
       <c r="H3828" s="1" t="s">
+        <v>3691</v>
+      </c>
+      <c r="I3828" s="1" t="s">
         <v>3692</v>
-      </c>
-      <c r="I3828" s="1" t="s">
-        <v>3693</v>
       </c>
     </row>
     <row r="3829" spans="1:6">
@@ -77724,7 +77731,7 @@
         <v>113120</v>
       </c>
       <c r="C3829" s="1" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="E3829" s="1">
         <v>3</v>
@@ -77742,7 +77749,7 @@
         <v>113120</v>
       </c>
       <c r="C3830" s="1" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="E3830" s="1">
         <v>1</v>
@@ -77760,7 +77767,7 @@
         <v>113120</v>
       </c>
       <c r="C3831" s="1" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="E3831" s="1">
         <v>2</v>
@@ -77784,7 +77791,7 @@
         <v>113130</v>
       </c>
       <c r="C3833" s="1" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="E3833" s="1">
         <v>4</v>
@@ -77808,7 +77815,7 @@
         <v>114010</v>
       </c>
       <c r="C3835" s="1" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="E3835" s="1">
         <v>18</v>
@@ -77829,7 +77836,7 @@
         <v>114010</v>
       </c>
       <c r="C3836" s="1" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="E3836" s="1">
         <v>18</v>
@@ -77847,7 +77854,7 @@
         <v>114010</v>
       </c>
       <c r="C3837" s="1" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="E3837" s="1">
         <v>18</v>
@@ -77871,7 +77878,7 @@
         <v>114020</v>
       </c>
       <c r="C3839" s="1" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="E3839" s="1">
         <v>6</v>
@@ -77892,7 +77899,7 @@
         <v>114020</v>
       </c>
       <c r="C3840" s="1" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="E3840" s="1">
         <v>1</v>
@@ -77916,7 +77923,7 @@
         <v>114020</v>
       </c>
       <c r="C3841" s="1" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="E3841" s="1">
         <v>1</v>
@@ -77940,7 +77947,7 @@
         <v>114030</v>
       </c>
       <c r="C3843" s="2" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="D3843" s="2"/>
       <c r="E3843" s="1">
@@ -77959,7 +77966,7 @@
         <v>114030</v>
       </c>
       <c r="C3844" s="1" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="E3844" s="1">
         <v>1</v>
@@ -77977,7 +77984,7 @@
         <v>114030</v>
       </c>
       <c r="C3845" s="1" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="E3845" s="1">
         <v>4</v>
@@ -78001,7 +78008,7 @@
         <v>114040</v>
       </c>
       <c r="C3847" s="1" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="E3847" s="1">
         <v>10</v>
@@ -78013,7 +78020,7 @@
         <v>1000380007</v>
       </c>
       <c r="I3847" s="1" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="3848" spans="1:6">
@@ -78025,7 +78032,7 @@
         <v>114040</v>
       </c>
       <c r="C3848" s="1" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="E3848" s="1">
         <v>20</v>
@@ -78043,7 +78050,7 @@
         <v>114040</v>
       </c>
       <c r="C3849" s="1" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="E3849" s="1">
         <v>10</v>
@@ -78061,7 +78068,7 @@
         <v>114040</v>
       </c>
       <c r="C3850" s="1" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="E3850" s="1">
         <v>1</v>
@@ -78085,7 +78092,7 @@
         <v>114040</v>
       </c>
       <c r="C3851" s="1" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="E3851" s="1">
         <v>6</v>
@@ -78109,7 +78116,7 @@
         <v>114050</v>
       </c>
       <c r="C3853" s="1" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="E3853" s="1">
         <v>10</v>
@@ -78127,7 +78134,7 @@
         <v>114050</v>
       </c>
       <c r="C3854" s="1" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="E3854" s="1">
         <v>1</v>
@@ -78145,7 +78152,7 @@
         <v>114050</v>
       </c>
       <c r="C3855" s="1" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="E3855" s="1">
         <v>3</v>
@@ -78169,7 +78176,7 @@
         <v>114060</v>
       </c>
       <c r="C3857" s="1" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="E3857" s="1">
         <v>1</v>
@@ -78187,7 +78194,7 @@
         <v>114060</v>
       </c>
       <c r="C3858" s="1" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="E3858" s="1">
         <v>1</v>
@@ -78205,7 +78212,7 @@
         <v>114060</v>
       </c>
       <c r="C3859" s="1" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="E3859" s="1">
         <v>3</v>
@@ -78223,7 +78230,7 @@
         <v>114060</v>
       </c>
       <c r="C3860" s="1" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="E3860" s="1">
         <v>1</v>
@@ -78241,7 +78248,7 @@
         <v>114060</v>
       </c>
       <c r="C3861" s="1" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="E3861" s="1">
         <v>1</v>
@@ -78259,7 +78266,7 @@
         <v>114060</v>
       </c>
       <c r="C3862" s="1" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="E3862" s="1">
         <v>1</v>
@@ -78277,7 +78284,7 @@
         <v>114060</v>
       </c>
       <c r="C3863" s="1" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="E3863" s="1">
         <v>10</v>
@@ -78295,7 +78302,7 @@
         <v>114060</v>
       </c>
       <c r="C3864" s="1" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="E3864" s="1">
         <v>2</v>
@@ -78313,7 +78320,7 @@
         <v>114060</v>
       </c>
       <c r="C3865" s="1" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="E3865" s="1">
         <v>1</v>
@@ -78331,7 +78338,7 @@
         <v>114060</v>
       </c>
       <c r="C3866" s="1" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="E3866" s="1">
         <v>1</v>
@@ -78349,7 +78356,7 @@
         <v>114060</v>
       </c>
       <c r="C3867" s="1" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="E3867" s="1">
         <v>3</v>
@@ -78367,7 +78374,7 @@
         <v>114060</v>
       </c>
       <c r="C3868" s="1" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="E3868" s="1">
         <v>2</v>
@@ -78385,7 +78392,7 @@
         <v>114060</v>
       </c>
       <c r="C3869" s="1" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="E3869" s="1">
         <v>3</v>
@@ -78409,7 +78416,7 @@
         <v>114070</v>
       </c>
       <c r="C3871" s="1" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="E3871" s="1">
         <v>8</v>
@@ -78433,7 +78440,7 @@
         <v>114080</v>
       </c>
       <c r="C3873" s="1" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="E3873" s="1">
         <v>6</v>
@@ -78451,7 +78458,7 @@
         <v>114080</v>
       </c>
       <c r="C3874" s="1" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="E3874" s="1">
         <v>2</v>
@@ -78469,7 +78476,7 @@
         <v>114080</v>
       </c>
       <c r="C3875" s="1" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="E3875" s="1">
         <v>10</v>
@@ -78487,7 +78494,7 @@
         <v>114080</v>
       </c>
       <c r="C3876" s="1" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="E3876" s="1">
         <v>500</v>
@@ -78505,7 +78512,7 @@
         <v>114080</v>
       </c>
       <c r="C3877" s="1" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="E3877" s="1">
         <v>20</v>
@@ -78523,7 +78530,7 @@
         <v>114080</v>
       </c>
       <c r="C3878" s="1" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="E3878" s="1">
         <v>1</v>
@@ -78541,7 +78548,7 @@
         <v>114080</v>
       </c>
       <c r="C3879" s="1" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="E3879" s="1">
         <v>6</v>
@@ -78559,7 +78566,7 @@
         <v>114080</v>
       </c>
       <c r="C3880" s="1" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="E3880" s="1">
         <v>50</v>
@@ -78577,7 +78584,7 @@
         <v>114080</v>
       </c>
       <c r="C3881" s="1" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="E3881" s="1">
         <v>10</v>
@@ -78595,7 +78602,7 @@
         <v>114080</v>
       </c>
       <c r="C3882" s="1" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="E3882" s="1">
         <v>8</v>
@@ -78613,7 +78620,7 @@
         <v>114080</v>
       </c>
       <c r="C3883" s="1" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="E3883" s="1">
         <v>3</v>
@@ -78631,7 +78638,7 @@
         <v>114080</v>
       </c>
       <c r="C3884" s="1" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="E3884" s="1">
         <v>1</v>
@@ -78649,7 +78656,7 @@
         <v>114080</v>
       </c>
       <c r="C3885" s="1" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="E3885" s="1">
         <v>18</v>
@@ -78667,7 +78674,7 @@
         <v>114080</v>
       </c>
       <c r="C3886" s="1" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="E3886" s="1">
         <v>4</v>
@@ -78685,7 +78692,7 @@
         <v>114080</v>
       </c>
       <c r="C3887" s="1" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="E3887" s="1">
         <v>10</v>
@@ -78703,7 +78710,7 @@
         <v>114080</v>
       </c>
       <c r="C3888" s="1" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="E3888" s="1">
         <v>5</v>
@@ -78721,7 +78728,7 @@
         <v>114080</v>
       </c>
       <c r="C3889" s="1" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="E3889" s="1">
         <v>20</v>
@@ -78745,7 +78752,7 @@
         <v>114090</v>
       </c>
       <c r="C3891" s="1" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="E3891" s="1">
         <v>4</v>
@@ -78769,7 +78776,7 @@
         <v>114100</v>
       </c>
       <c r="C3893" s="1" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="E3893" s="1">
         <v>3</v>
@@ -78787,7 +78794,7 @@
         <v>114100</v>
       </c>
       <c r="C3894" s="1" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="E3894" s="1">
         <v>2</v>
@@ -78805,7 +78812,7 @@
         <v>114100</v>
       </c>
       <c r="C3895" s="1" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="E3895" s="1">
         <v>5</v>
@@ -78823,7 +78830,7 @@
         <v>114100</v>
       </c>
       <c r="C3896" s="1" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="E3896" s="1">
         <v>2</v>
@@ -78847,7 +78854,7 @@
         <v>114100</v>
       </c>
       <c r="C3897" s="1" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="E3897" s="1">
         <v>10</v>
@@ -78865,7 +78872,7 @@
         <v>114100</v>
       </c>
       <c r="C3898" s="1" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="E3898" s="1">
         <v>12</v>
@@ -78889,7 +78896,7 @@
         <v>114100</v>
       </c>
       <c r="C3899" s="1" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="E3899" s="1">
         <v>35</v>
@@ -78907,7 +78914,7 @@
         <v>114100</v>
       </c>
       <c r="C3900" s="1" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="E3900" s="1">
         <v>16</v>
@@ -78925,7 +78932,7 @@
         <v>114100</v>
       </c>
       <c r="C3901" s="1" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="E3901" s="1">
         <v>54</v>
@@ -78943,7 +78950,7 @@
         <v>114100</v>
       </c>
       <c r="C3902" s="1" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="E3902" s="1">
         <v>34</v>
@@ -78967,7 +78974,7 @@
         <v>114110</v>
       </c>
       <c r="C3904" s="1" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="E3904" s="1">
         <v>4</v>
@@ -78985,7 +78992,7 @@
         <v>114110</v>
       </c>
       <c r="C3905" s="1" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="E3905" s="1">
         <v>8</v>
@@ -79003,7 +79010,7 @@
         <v>114110</v>
       </c>
       <c r="C3906" s="1" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="E3906" s="1">
         <v>24</v>
@@ -79021,7 +79028,7 @@
         <v>114110</v>
       </c>
       <c r="C3907" s="1" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="E3907" s="1">
         <v>18</v>
@@ -79039,7 +79046,7 @@
         <v>114110</v>
       </c>
       <c r="C3908" s="1" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E3908" s="1">
         <v>10</v>
@@ -79057,7 +79064,7 @@
         <v>114110</v>
       </c>
       <c r="C3909" s="1" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="E3909" s="1">
         <v>12</v>
@@ -79075,7 +79082,7 @@
         <v>114110</v>
       </c>
       <c r="C3910" s="1" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="E3910" s="1">
         <v>10</v>
@@ -79093,7 +79100,7 @@
         <v>114110</v>
       </c>
       <c r="C3911" s="1" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="E3911" s="1">
         <v>8</v>
@@ -79111,7 +79118,7 @@
         <v>114110</v>
       </c>
       <c r="C3912" s="1" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="E3912" s="1">
         <v>12</v>
@@ -79129,7 +79136,7 @@
         <v>114110</v>
       </c>
       <c r="C3913" s="1" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="E3913" s="1">
         <v>10</v>
@@ -79147,7 +79154,7 @@
         <v>114110</v>
       </c>
       <c r="C3914" s="1" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="E3914" s="1">
         <v>3</v>
@@ -79171,7 +79178,7 @@
         <v>120010</v>
       </c>
       <c r="C3916" s="1" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="E3916" s="1">
         <v>-1</v>
@@ -79189,7 +79196,7 @@
         <v>120010</v>
       </c>
       <c r="C3917" s="1" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="E3917" s="1">
         <v>-1</v>
@@ -79213,7 +79220,7 @@
         <v>120020</v>
       </c>
       <c r="C3919" s="1" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="E3919" s="1">
         <v>15</v>
@@ -79225,7 +79232,7 @@
         <v>1400180184</v>
       </c>
       <c r="I3919" s="1" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="3920" spans="2:2">
@@ -79243,7 +79250,7 @@
         <v>120030</v>
       </c>
       <c r="C3921" s="1" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="E3921" s="1">
         <v>120</v>
@@ -79261,7 +79268,7 @@
         <v>120030</v>
       </c>
       <c r="C3922" s="1" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="E3922" s="1">
         <v>9</v>
@@ -79279,7 +79286,7 @@
         <v>120030</v>
       </c>
       <c r="C3923" s="1" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="E3923" s="1">
         <v>50</v>
@@ -79297,7 +79304,7 @@
         <v>120030</v>
       </c>
       <c r="C3924" s="1" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="E3924" s="1">
         <v>9</v>
@@ -79315,7 +79322,7 @@
         <v>120030</v>
       </c>
       <c r="C3925" s="1" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="E3925" s="1">
         <v>17</v>
@@ -79339,7 +79346,7 @@
         <v>120040</v>
       </c>
       <c r="C3927" s="1" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="E3927" s="1">
         <v>30</v>
@@ -79357,7 +79364,7 @@
         <v>120040</v>
       </c>
       <c r="C3928" s="1" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="E3928" s="1">
         <v>100</v>
@@ -79381,7 +79388,7 @@
         <v>120050</v>
       </c>
       <c r="C3930" s="2" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="D3930" s="2"/>
       <c r="E3930" s="1">
@@ -79406,7 +79413,7 @@
         <v>120060</v>
       </c>
       <c r="C3932" s="1" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="E3932" s="1">
         <v>10</v>
@@ -79430,7 +79437,7 @@
         <v>120070</v>
       </c>
       <c r="C3934" s="1" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="E3934" s="1">
         <v>8</v>
@@ -79448,7 +79455,7 @@
         <v>120070</v>
       </c>
       <c r="C3935" s="1" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="E3935" s="1">
         <v>2</v>
@@ -79472,7 +79479,7 @@
         <v>121010</v>
       </c>
       <c r="C3937" s="1" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="E3937" s="1">
         <v>2</v>
@@ -79496,7 +79503,7 @@
         <v>121020</v>
       </c>
       <c r="C3939" s="1" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="E3939" s="1">
         <v>2</v>
@@ -79520,7 +79527,7 @@
         <v>121030</v>
       </c>
       <c r="C3941" s="1" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="E3941" s="1">
         <v>1</v>
@@ -79550,7 +79557,7 @@
         <v>121040</v>
       </c>
       <c r="C3943" s="1" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="E3943" s="1">
         <v>1</v>
@@ -79568,7 +79575,7 @@
         <v>121040</v>
       </c>
       <c r="C3944" s="1" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="E3944" s="1">
         <v>1</v>
@@ -79586,7 +79593,7 @@
         <v>121040</v>
       </c>
       <c r="C3945" s="1" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="E3945" s="1">
         <v>1</v>
@@ -79604,7 +79611,7 @@
         <v>121040</v>
       </c>
       <c r="C3946" s="1" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="E3946" s="1">
         <v>1</v>
@@ -79622,7 +79629,7 @@
         <v>121040</v>
       </c>
       <c r="C3947" s="1" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="E3947" s="1">
         <v>1</v>
@@ -79640,7 +79647,7 @@
         <v>121040</v>
       </c>
       <c r="C3948" s="1" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="E3948" s="1">
         <v>4</v>
@@ -79664,7 +79671,7 @@
         <v>121050</v>
       </c>
       <c r="C3950" s="1" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="E3950" s="1">
         <v>2</v>
@@ -79688,7 +79695,7 @@
         <v>121060</v>
       </c>
       <c r="C3952" s="1" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="E3952" s="1">
         <v>2</v>
@@ -79706,7 +79713,7 @@
         <v>121060</v>
       </c>
       <c r="C3953" s="1" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="E3953" s="1">
         <v>1</v>
@@ -79724,7 +79731,7 @@
         <v>121060</v>
       </c>
       <c r="C3954" s="1" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="E3954" s="1">
         <v>30</v>
@@ -79733,10 +79740,10 @@
         <v>1400280305</v>
       </c>
       <c r="H3954" s="1" t="s">
+        <v>3796</v>
+      </c>
+      <c r="I3954" s="1" t="s">
         <v>3797</v>
-      </c>
-      <c r="I3954" s="1" t="s">
-        <v>3798</v>
       </c>
     </row>
     <row r="3955" spans="2:2">
@@ -79754,7 +79761,7 @@
         <v>121070</v>
       </c>
       <c r="C3956" s="1" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="E3956" s="1">
         <v>2</v>
@@ -79763,10 +79770,10 @@
         <v>1500180146</v>
       </c>
       <c r="H3956" s="1" t="s">
+        <v>3799</v>
+      </c>
+      <c r="I3956" s="1" t="s">
         <v>3800</v>
-      </c>
-      <c r="I3956" s="1" t="s">
-        <v>3801</v>
       </c>
     </row>
     <row r="3957" spans="2:2">
@@ -79784,7 +79791,7 @@
         <v>121080</v>
       </c>
       <c r="C3958" s="1" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="E3958" s="1">
         <v>8</v>
@@ -79808,7 +79815,7 @@
         <v>121080</v>
       </c>
       <c r="C3959" s="1" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="E3959" s="1">
         <v>1</v>
@@ -79826,7 +79833,7 @@
         <v>121080</v>
       </c>
       <c r="C3960" s="1" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="E3960" s="1">
         <v>1</v>
@@ -79844,7 +79851,7 @@
         <v>121080</v>
       </c>
       <c r="C3961" s="1" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="E3961" s="1">
         <v>2</v>
@@ -79862,7 +79869,7 @@
         <v>121080</v>
       </c>
       <c r="C3962" s="1" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="E3962" s="1">
         <v>1</v>
@@ -79880,7 +79887,7 @@
         <v>121080</v>
       </c>
       <c r="C3963" s="1" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="E3963" s="1">
         <v>1</v>
@@ -79904,7 +79911,7 @@
         <v>121090</v>
       </c>
       <c r="C3965" s="1" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="E3965" s="1">
         <v>11</v>
@@ -79922,7 +79929,7 @@
         <v>121090</v>
       </c>
       <c r="C3966" s="1" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="E3966" s="1">
         <v>15</v>
@@ -79946,7 +79953,7 @@
         <v>122010</v>
       </c>
       <c r="C3968" s="1" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="E3968" s="1">
         <v>16</v>
@@ -79964,7 +79971,7 @@
         <v>122010</v>
       </c>
       <c r="C3969" s="1" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="E3969" s="1">
         <v>16</v>
@@ -79982,7 +79989,7 @@
         <v>122010</v>
       </c>
       <c r="C3970" s="1" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="E3970" s="1">
         <v>16</v>
@@ -80000,7 +80007,7 @@
         <v>122010</v>
       </c>
       <c r="C3971" s="1" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="E3971" s="1">
         <v>2</v>
@@ -80024,7 +80031,7 @@
         <v>122020</v>
       </c>
       <c r="C3973" s="1" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="E3973" s="1">
         <v>2</v>
@@ -80048,7 +80055,7 @@
         <v>122020</v>
       </c>
       <c r="C3974" s="1" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="E3974" s="1">
         <v>3</v>
@@ -80072,7 +80079,7 @@
         <v>122030</v>
       </c>
       <c r="C3976" s="1" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="E3976" s="1">
         <v>1</v>
@@ -80090,7 +80097,7 @@
         <v>122030</v>
       </c>
       <c r="C3977" s="1" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="E3977" s="1">
         <v>8</v>
@@ -80108,7 +80115,7 @@
         <v>122030</v>
       </c>
       <c r="C3978" s="1" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="E3978" s="1">
         <v>2</v>
@@ -80138,7 +80145,7 @@
         <v>122040</v>
       </c>
       <c r="C3980" s="2" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="D3980" s="2"/>
       <c r="E3980" s="1">
@@ -80157,7 +80164,7 @@
         <v>122040</v>
       </c>
       <c r="C3981" s="1" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="E3981" s="1">
         <v>1</v>
@@ -80181,7 +80188,7 @@
         <v>122050</v>
       </c>
       <c r="C3983" s="1" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="E3983" s="1">
         <v>4</v>
@@ -80205,7 +80212,7 @@
         <v>122060</v>
       </c>
       <c r="C3985" s="1" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="E3985" s="1">
         <v>48</v>
@@ -80229,7 +80236,7 @@
         <v>123010</v>
       </c>
       <c r="C3987" s="2" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="D3987" s="2"/>
       <c r="E3987" s="1">
@@ -80260,7 +80267,7 @@
         <v>123020</v>
       </c>
       <c r="C3989" s="1" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="E3989" s="1">
         <v>1</v>
@@ -80290,7 +80297,7 @@
         <v>123030</v>
       </c>
       <c r="C3991" s="1" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="E3991" s="1">
         <v>2</v>
@@ -80308,7 +80315,7 @@
         <v>123030</v>
       </c>
       <c r="C3992" s="1" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="E3992" s="1">
         <v>2</v>
@@ -80326,7 +80333,7 @@
         <v>123030</v>
       </c>
       <c r="C3993" s="1" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="E3993" s="1">
         <v>1</v>
@@ -80344,7 +80351,7 @@
         <v>123030</v>
       </c>
       <c r="C3994" s="1" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="E3994" s="1">
         <v>3</v>
@@ -80368,7 +80375,7 @@
         <v>123040</v>
       </c>
       <c r="C3996" s="1" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="E3996" s="1">
         <v>3</v>
@@ -80392,7 +80399,7 @@
         <v>123050</v>
       </c>
       <c r="C3998" s="1" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="E3998" s="1">
         <v>30</v>
@@ -80410,7 +80417,7 @@
         <v>123050</v>
       </c>
       <c r="C3999" s="1" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="E3999" s="1">
         <v>12</v>
@@ -80428,7 +80435,7 @@
         <v>123050</v>
       </c>
       <c r="C4000" s="1" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="E4000" s="1">
         <v>4</v>
@@ -80446,7 +80453,7 @@
         <v>123050</v>
       </c>
       <c r="C4001" s="1" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="E4001" s="1">
         <v>12</v>
@@ -80470,7 +80477,7 @@
         <v>123060</v>
       </c>
       <c r="C4003" s="1" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="E4003" s="1">
         <v>5</v>
@@ -80488,7 +80495,7 @@
         <v>123060</v>
       </c>
       <c r="C4004" s="1" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="E4004" s="1">
         <v>2</v>
@@ -80506,7 +80513,7 @@
         <v>123060</v>
       </c>
       <c r="C4005" s="1" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="E4005" s="1">
         <v>2</v>
@@ -80524,7 +80531,7 @@
         <v>123060</v>
       </c>
       <c r="C4006" s="1" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="E4006" s="1">
         <v>4</v>
@@ -80548,7 +80555,7 @@
         <v>124010</v>
       </c>
       <c r="C4008" s="1" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="E4008" s="1">
         <v>16</v>
@@ -80572,7 +80579,7 @@
         <v>124020</v>
       </c>
       <c r="C4010" s="1" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="E4010" s="1">
         <v>3</v>
@@ -80590,7 +80597,7 @@
         <v>124020</v>
       </c>
       <c r="C4011" s="1" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="E4011" s="1">
         <v>6</v>
@@ -80614,7 +80621,7 @@
         <v>124030</v>
       </c>
       <c r="C4013" s="1" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="E4013" s="1">
         <v>2</v>
@@ -80644,7 +80651,7 @@
         <v>124040</v>
       </c>
       <c r="C4015" s="1" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="E4015" s="1">
         <v>2</v>
@@ -80662,7 +80669,7 @@
         <v>124040</v>
       </c>
       <c r="C4016" s="1" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="E4016" s="1">
         <v>10</v>
